--- a/Workbook_X.xlsx
+++ b/Workbook_X.xlsx
@@ -6,15 +6,51 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="My_list_282" r:id="rId3" sheetId="1"/>
+    <sheet name="Расписание" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Текст в ячейку 2:4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="13">
+  <si>
+    <t>День</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
   </si>
 </sst>
 </file>
@@ -59,16 +95,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="E3"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
     <row r="3">
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78">
+      <c r="A78"/>
+      <c r="B78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84">
+      <c r="A84"/>
+      <c r="B84" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
